--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,47 +436,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.5</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
         <v>12</v>
       </c>
     </row>
@@ -486,6 +486,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -507,173 +600,80 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>24.99</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>13.99</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>1.99</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.99</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
         <v>3.4</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
-    <t>Item #</t>
-  </si>
-  <si>
     <t>Item Name</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Item Type</t>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost Per Item</t>
+  </si>
+  <si>
+    <t>Total Price</t>
   </si>
   <si>
     <t xml:space="preserve">Hendrick Gin &amp; Tonic </t>
@@ -437,46 +437,34 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>12</v>
       </c>
     </row>
@@ -508,68 +496,50 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>24.99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>13.99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1.99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>4.99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>15.5</v>
       </c>
     </row>
@@ -601,79 +571,58 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2.15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>6.99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>3.4</v>
       </c>
     </row>
